--- a/500all/speech_level/speeches_CHRG-114hhrg23890.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23890.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400145</t>
   </si>
   <si>
-    <t>Scott Garrett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Garrett. Good morning. The Subcommittee on Capital Markets and Government Sponsored Enterprises will hereby come to order. Today's hearing is entitled, ``The JOBS Act at Four: Examining Its Impact and Proposals to Further Enhance Capital Formation.''    Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Also, without objection, members of the full Financial Services Committee who are not members of the subcommittee may sit on the dais and participate in today's hearing.    I welcome all the members on the panel today.    And with that, I now recognize myself for 3 minutes for an opening statement.    It is not often that Congress can look back at a major piece of legislation and be able to measure the tangible positive impact of it that it is having on people's lives and our economy. Too often, we find ourselves, especially in this committee, counting up the costs of the many misguided Washington mandates and comparing them with the so-called phantom benefits promised by the bureaucratic class and the sponsors of those regulations.    Fortunately, that is not the case today. The Jumpstart Our Business Startups, or the JOBS Act, signed into law literally 4 years ago this month, has, by I think most measures, been a resounding success for our economy and for the future of innovation here in the United States.    The JOBS Act did this not by creating new Federal mandates or spending taxpayers' money on wasteful government programs, but instead by empowering entrepreneurs and innovators who were struggling under a regulatory regime that was better suited for 1934 than it was for 2016.    So, just consider some of these facts.    First, the JOBS Act has led to a resurgence in the initial public offering, the IPO market, with some 85 percent--yes, 85 percent--of IPOs since April 2012 coming from emerging growth companies.    Second, companies have raised some $50 billion under the new Reg D provisions that allow businesses to solicit an offering to the general public.    Third, while the newly modernized Reg A-plus is only a year old, businesses are already beginning to issue securities under that exemption.    And finally, recent reports indicates that the SEC has already received up to 30 applications for portals under the new crowdfunding rules, which are set to go into effect next month.    So while it is clear that many parts of the JOBS Act are working as intended, the point of the hearing that we are having today is not to say how great we are for doing that, and job well done. For starters, because the Senate tried its best, you would say, back in 2012 to neuter some of the provisions, especially in the crowdfunding title, and the SEC has also taken some liberties with other rulemakings, the JOBS Act obviously needs a little bit of fixing.    So I want to thank the gentleman from North Carolina, Mr. McHenry, for putting forward the Fix the Crowdfunding Act. What does it do? It makes some necessary changes to help ensure that Title III reaches its full potential.    And additionally, I have put forward a bill called the Private Placement Improvement Act, which will prohibit the SEC from implementing some burdensome new regulations on Reg D issuers that are uncalled for in the JOBS Act.    We will also consider two other bills today. Mr. Emmer, who is here today with us, has introduced an innovative bill that would create a safe harbor, if you will, for so-called micro-offerings. And Mr. McHenry, again, has another bill, which would raise the threshold for when venture capital funds would have to register with the SEC.    So finally, in addition to these targeted fixes, I am also interested in hearing from the witnesses about further areas that Congress should be addressing in order to maintain the competitiveness in our capital markets. For example, we should be exploring the cumulative burden that comes with being a public company, including, unfortunately, some of the ridiculous disclosure requirements of the Dodd-Frank Act, as well as the outside influence that proxy advisor firms have in the corporate government arena.    It is also time, finally, to think more about the lack of research and liquidity that exists for some public companies and whether the Equity Research Global Settlement of 2003 swung the pendulum just too far and has led to a dearth of research for small cap funds.    So these are all very important questions, and I look forward to hearing from each one of our witnesses today.    And with that, I now yield to the ranking member of the subcommittee, the gentlelady from New York, Mrs. Maloney, for 5 minutes.</t>
   </si>
   <si>
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you so much for calling this important hearing.    I thank all of our panelists for attending, particularly Mr. Beatty and Mr. Griggs, who is from NASDAQ, which is located in the district I am privileged to represent. I look forward to all of your testimony today.    This hearing will examine four legislative proposals that are intended to make it easier for companies to raise capital. While I am interested in hearing our witnesses' thoughts on these proposals, I do have some serious concerns with some of the bills as they are written.    H.R. 4850, the Micro Offering Safe Harbor Act, creates three entirely new exemptions from the requirement to register securities. First, the securities will be exempt from the registration requirement if the buyer has a ``substantive preexisting relationship'' with an officer of the company before he buys the securities.    Second, the securities will be exempt as long as the company ``reasonably believes'' that there are no more than 35 buyers who have relied on these new exemptions in the previous year.    And finally, the securities will be exempt if the company hasn't sold more than $500,000 of securities in the past year.    Based on the title of the bill, I believe that is intended to apply only to very small offerings of securities, or ``micro offerings'' as they are so called. However, the way I read the bill, it actually applies to all offerings, no matter how large, as long as the buyer has a substantive preexisting relationship with an officer of the company before he buys the security.    I am concerned that this would blow a hole in the securities law because a substantive preexisting relationship could even be developed during the company's sales pitch to the investor.    It is important to note that we are already seeing a trend toward the use of unregistered private securities rather than publicly registered securities. In fact, the private securities market is now larger than the public securities market in 2014. Companies raised $2.1 trillion through the private securities market, compared to only $1.3 trillion through the public securities market.    I believe we need to take a step back and think about whether this trend is a good thing. Clearly, this means that more securities are being sold with fewer investor protections.    Are investors in these securities being harmed or exposed to risks that they don't fully understand? Or are investors capable of bearing these risks, which they fully understood before they purchased the securities? These are important questions that I think we need to ask 4 years after the JOBS Act.    Finally, another bill we will consider today, H.R. 4854, would significantly expand the number of investors who can invest in venture capital funds that are exempt from SEC oversight. Under current law, a fund can be exempt from SEC oversight if it has less than 100 investors and its securities are not offered publicly.    A fund with fewer than 100 investors which is not marketed publicly poses fewer investor protection concerns than large funds that have lots of retail investors in them. This bill would raise that threshold from 100 investors to 500 investors, but only for venture capital funds.    I would like to hear from our witnesses as to why this change to such a longstanding rule is necessary, and what problem we are trying to solve.    So I would like to thank all of our witnesses for being here today, and I look forward to a robust discussion.    Thank you so much, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412484</t>
   </si>
   <si>
-    <t>Robert Hurt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurt. Thank you, Mr. Chairman. I thank you for holding today's hearing.    I am pleased that this subcommittee is continuing its efforts to enhance the strength and vitality of our domestic capital markets. Four years ago, this committee achieved bipartisan success with the JOBS Act, and I remain hopeful that we can continue to improve upon that work.    Capital formation for small companies is critical to the success of our economy. And as I travel across Virginia's 5th Congressional District, my district, I am regularly reminded of how our Nation's small businesses and startups are in dire need of capital, how they have trouble accessing capital, and how their potential success is often thwarted by outdated and unnecessary policies imposed here in Washington.    While small companies are at the forefront of innovation and job creation, these same companies often incur obstacles in obtaining funding in the capital markets. The JOBS Act sought to remove some of these burdens by recognizing that our securities regulations are often written for larger companies.    Today, we have four additional legislative proposals that all seek to expand and improve access to capital for our small businesses and startups. These proposals are aimed at amending the JOBS Act to enhance capital formation for small companies and their investors.    Small companies, as we all know, are the backbone of our economy and our Nation's most dynamic job creators. We must do everything possible to help them succeed. And if we can do so without compromising investor protection and transparency, then we must embrace these ideas.    The ideas we are discussing today are a step in the right direction, and I thank the sponsors for their work on this legislation.    I look forward to the testimony of our distinguished witnesses, and I thank you for your appearance before our subcommittee today.    Mr. Chairman, I thank you, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Atkins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Atkins. Good morning. Thank you very much, Chairman Garrett, Ranking Member Maloney, and members of the subcommittee, for inviting me to testify today.    My name is Paul Atkins. I am CEO of Patomak Global Partners here in Washington, D.C.; and for 6 years, ending in 2008, I served as SEC Commissioner.    Small businesses are vital to our Nation's economy. Startups and young companies are a primary driver of job creation.    If we are serious about spurring real economic growth, creating more jobs outside of Washington, D.C., and breaking down our two-tiered economy, we do not need higher taxes or more government spending. Instead, we need more entrepreneurs and small businesses and a sensible regulatory environment in which these individuals and firms can succeed.    The bipartisan JOBS Act proves that you do not need hundreds or thousands of pages of complex legislation to help Main Street businesses and protect consumers and investors. At only 22 pages, the JOBS Act has already achieved significant results for small businesses seeking access to much-needed capital while at the same time maintaining important investor protections and providing more opportunities for Americans to put their hard-earned dollars to work investing in America's future.    Thanks in large part to the IPO On-Ramp, 2014 was the best year for IPOs since 2004, with emerging growth companies taking advantage of the on-ramp's scale, disclosure, and reporting requirements, all of which make public offerings more attractive for smaller companies while preserving essential information for investors. More IPOs generally means more jobs.    Thanks to Titles II and IV, we are also seeing issuers and investors starting to take advantage of offerings using general solicitation and the amended Reg A-plus exemption. Just 4 years after its enactment, the JOBS Act has helped rationalize and modernize the current regulatory environment to better serve small companies and investors alike, but the job is not done.    The Obama Administration continues to bury small businesses under record amounts of red tape. I believe that a major cause of the uncertainty still handcuffing our economy is, in fact, government policy, particularly the sweeping Dodd-Frank Act.    The real tragedy behind Dodd-Frank and the hundreds of other major rules flowing from Washington every year is that consumers, investors, and small businesses are harmed the most. It is no surprise, then, that major small business surveys recently have highlighted government regulation and access to credit as being among the most significant growth concerns currently facing small companies.    The SEC, which has a statutory mandate to facilitate capital formation, has also neglected small business or, worse, firmly placed itself in the way of positive reform. The SEC could have implemented the provisions of the JOBS Act on its own, but instead the agency did neither, burying its head in the sand while Congress went to work. In fact, instead of fulfilling its core mission, the SEC has misprioritized its resources by focusing first on Dodd-Frank rules that do not address the real causes of the financial crisis and only add to the regulatory burden already weighing on our economy.    Finally, when faced with a clear JOBS Act mandate to simplify and lift the ban on general solicitation, the SEC chose on its own to slow the pace of reform by issuing an additional rule proposal to amend Reg D in ways that would fundamentally undermine the purpose of the JOBS Act.    The proposal would add unnecessary costs and burdens on small issuers and investors seeking to take advantage of general solicitation under Section 506(c)--for example, first, by making issuers submit two additional Form D filings; second, by imposing a draconian 1-year ban on using Rule 506 for failing to comply with the Form D filing requirements even for a foot fault; and third, by forcing issuers to file all general solicitation materials with the SEC.    Now, I have talked to lawyers, law professors, and venture capital investors in Silicon Valley and elsewhere, and they advise would-be issuers to shun--not use at all--506(c) offerings because of the uncertainty and the potential for ``gotcha'' enforcement actions by the SEC and, I think, by the States, as well. Indeed, because the nature of these nonpublic offerings means that it is hard to define a beginning and an end to the potential securities offering, the potential for ``gotcha'' enforcement actions with these offerings is real and a trap for the unwary.    Chairman Garrett's bill, the Private Placement Improvement Act, would go a long way towards allowing issuers to use 506(c) in the manner Congress intended.    Over the last 5\\1/2\\ years, this committee has been at the forefront of helping America's small businesses grow and create jobs. I thank you for all your efforts and for the opportunity to testify here today.    Thank you very much.    [The prepared statement of Mr. Atkins can be found on page 44 of the appendix.]</t>
   </si>
   <si>
@@ -97,36 +85,24 @@
     <t>412565</t>
   </si>
   <si>
-    <t>Joyce Beatty</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beatty. Thank you.    Good morning, Chairman Garrett, Ranking Member Maloney, and members of the subcommittee. My name is Bill Beatty. For the past 30 years I have worked as an attorney in the securities division of the Washington State Department of Financial Institutions, and since 2010, I have served as the department's securities director.    I am also a member of the North American Securities Administrators Association (NASAA), having served as the Association's president from 2014 to 2015. Since October of 2015, I have served as Chair of NASAA's Committee on Small Business Capital Formation.    My many years in securities regulation have led me to the inescapable conclusion that successful capital formation must include robust investor protection. I am honored to testify before the subcommittee today on these four legislative proposals.    The first bill, the Private Placement Improvement Act, limits the SEC's authority to revise filing requirements for Regulation D. As we know, Title II repealed the longstanding prohibition on general solicitation and advertising under Rule 506. State securities regulators remain deeply concerned about the potential negative impact of these changes on investors.    When the SEC adopted these rules to implement Title II in 2013, it also voted on proposed rules that would mitigate the risk to ordinary investors in 506 offerings. These included requiring a prefiling of Form D when issuers intended to advertise and imposing penalties on issuers who failed to file Form D. Form D is crucial to State securities regulators like me because it is often the only information we can use to determine if an issuer is conducting an offering in compliance with a lawful exemption.    By prohibiting the SEC from adopting these commonsense investor reforms, the bill would tie the hands of the SEC to implement the few investor protections it has adopted or proposed in connection with Rule 506 and undercut the SEC's most promising efforts to gather data and additional information about the 506 marketplace. NASAA is strongly opposed to any action by Congress to diminish the ability of the SEC to address the risks to investors resulting from lifting the ban on general solicitation.    Finally, we take issue with the suggestions that filing of Form D is an onerous regulatory or compliance burden. Form D is a short form filed electronically. It captures 8 pages of information and is minimal, relative to the information in the issuer's offering documents.    Moving to the Micro Offering Safe Harbor Act, which would amend section four of the Securities Act and also preempt State securities offerings, we remain--we are deeply concerned about this bill as well. Notwithstanding the title, the new exemption would not be limited to micro offerings. In fact, it would permit the raising of unlimited amounts of money.    The bill would not prohibit general solicitation, disqualify bad actors, limit offering amounts, or even permit notice filings to State or Federal regulators. It would not impose a holding period or other restrictions on resale of securities purchased under these new exemptions, making these offerings highly susceptible to price manipulation and pump-and-dump schemes.    The bill would also make the task of policing the unregistered securities marketplace much more difficult for securities regulators. The new exemption established by the bill would likely supplant Rule 506, but without the basic information provided in Form D.    Beyond these overarching concerns, each of the new safe harbors is discussed in my written comments.    Moving finally to the Fix Crowdfunding Act--proposing revisions to Title III, State securities regulators understand the theoretical basis for several of the proposed amendments and we do not necessarily oppose them. We also appreciate Congress' frustration that Federal crowdfunding has yet to take effect. It has been 4 years since the passage of the JOBS Act, and during that time dozens of States have adopted and implemented intrastate crowdfunding exemptions.    However, the critical point for Congress today is that there is no answer to the question of how to fix Federal crowdfunding because we do not yet know what will work, what won't work, or what the new marketplace will look like. There is no data whatsoever about Federal crowdfunding, and only limited data about what is working at the State level.    By contrast, several years from now there will be a wealth of data both from State and Federal crowdfunding regimes.    State securities regulators urge Congress to refrain from amending Title III of the JOBS Act at this time. We believe that to enact legislation at this point would be counterproductive and premature.    Instead, we urge Congress to closely monitor the implementation of Regulation CF, State crowdfunding exemptions, to conduct oversight and gather information about the new marketplace. With the coming implementation of Federal crowdfunding rules and with intrastate crowdfunding already available in the majority of States, we shall very soon learn whether and how these new capital-raising tools will be used.    Thank you again, Chairman Garrett and Ranking Member Maloney, for the opportunity to testify before the subcommittee today.    [The prepared statement of Mr. Beatty can be found on page 55 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Garrett. I thank you, Mr. Beatty.    Next up, Mr. Griggs. Welcome, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Griggs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griggs. Thank you, Chairman Garrett, Ranking Member Maloney, and members of the subcommittee, for the opportunity to testify on JOBS Act four. The work of this subcommittee to push forward the JOBS Act is a great achievement of Congress and a shining example of bipartisanship and statesmanship. However, there are issues that remain affecting private companies' view of the public markets today.    Capital formation and job creation are the NASDAQ's DNA. We brought the capital markets a trusted listing venue and the changed view that companies can go public earlier in their growth cycle, dispelling a common Wall Street perception about when companies should go public. NASDAQ recognized that while most companies wanted access to capital, investors also want access to companies at earlier stages of the growth cycle.    In the same vein, since the enactment of the JOBS Act, NASDAQ has created the NASDAQ Private Market (NPM). We established NPM to meet the unique needs and challenges of today's top growth companies.    Thus, NASDAQ, we feel, is uniquely qualified to speak about both public and private markets.    Four years have passed and the evidence is clear: The JOBS Act has successfully helped hundreds of companies to go public while generating new dynamics in the private space. In fact, 785 companies have gone public, leveraging the Emerging Growth Companies Act, and have raised over $103 billion to expand, hire, and compete on a global stage. And approximately 1,000 registration statements have been filed with the SEC confidentially.    From our vantage point, the JOBS Act has not resulted in diminished investor protection, an important outcome as you consider moving forward with reforms.    Without question, NASDAQ believes the most successful provision of the JOBS Act has been the ability for companies to file confidentially. This has been most evident in the increased number of IPOs in the biotech and life science sectors. Many quality companies have been able to work with the SEC to finalize their registration without public disclosure of their competitive proprietary information, and companies can better manage their decisions to go public as they evaluate market conditions.    Because confidential filing has improved the IPO process without decreasing investor protection, we believe Congress should go one step further and allow companies of all sizes to file on a confidential basis and also allow other types of registration statements to be filed confidentially.    So turning to some challenges that we see facing public companies today that I hear day in and day out from our listed companies, which create a negative light on entrepreneurship views of going public, for example, certain investors who accumulate long positions today are required to do public disclosures of their holdings, but there are no corresponding obligations for short-sellers to do so, even though the same policies of transparency, fairness, and efficiency apply.    We believe that some enhanced disclosure of short positions that matches disclosure for long requirements is warranted. From a company perspective, this lack of transparency has a real negative impact because it deprives a company of insights into trading activity and limits their ability to manage and engage with investors.    With respect to proxy advisory firms, we remain concerned that these firms do not always conduct their standard-setting in a fair and transparent manner. We are pleased that the SEC issued guidance regarding the use by investment advisories--advisors of proxy advisory firms, but it is apparent that much more work needs to be done here.    Last year, NASDAQ partnered with the U.S. Chamber on a survey of public companies' experience in the 2015 proxy season. Over 155 companies responded, and it is apparent that companies continue to have difficulty providing input to advisory firms or even having errors corrected.    Lastly, with respect to the PCAOB, public companies, especially smaller ones, face increasing auditing costs. While companies do not object to costs that provide equal investor benefit, the companies claim that some of these costs are the result of nonsensical, one-size-fits-all application of guidance and feel they are stuck because auditors claim that they must comply with the PCAOB. For these reasons, we believe the PCAOB should be required to establish an ombudsman's office as a resource for companies to bring up issues that they have.    So I want to commend the subcommittee for its continued work to help capital formation with the bipartisan passage of the last 15 capital formation bills, including the RAISE Act, authored by Representative Patrick McHenry and strongly supported by NASDAQ.    I also want to thank you, Mr. Chairman, for your leadership in offering an important bill, the Main Street Growth Act, to foster creation of venture exchanges. We certainly appreciate the discussion on this and we look forward to being a participant moving forward.    The subcommittee has asked NASDAQ to comment on the four proposals aimed at fostering capital formation, and I have done so in my written testimony. We are in favor of the efforts here and look forward to supporting them as they move forward.    Thanks very much for your time, and I appreciate the attention.    [The prepared statement of Mr. Griggs can be found on page 68 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Garrett. Thanks for your testimony.    Next up, Mr. Keating. Welcome, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Keating</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keating. Chairman Garrett, Ranking Member Maloney, and members of the subcommittee, thank you very much for hosting this important hearing today on the JOBS Act and the need to enhance capital formation. And I appreciate the invitation.    My name is Raymond Keating. I am chief economist with the Small Business and Entrepreneurship Council. We are a nonpartisan, nonprofit advocacy and research and training organization dedicated to protecting small business and promoting entrepreneurship.    Access to capital has been a key issue, a central issue for SBE Council since our very founding. Indeed, access to financial capital, whether via equity or debt, is vital for entrepreneurs seeking to start up, operate, or expand their businesses. But at the same time, gaining access to capital has remained an enduring challenge for many, if not most, small businesses.    Long after this last recession and the start of this recovery, the value of small business loans outstanding is still down notably from the recent high set in 2008. In fact, there has been really no growth over the last decade. When you look again at the small business share of business loans, the value has also declined markedly; also the number of small business loans.    On the equity side, angel investment is a critical source of funding for startups and early-stage businesses. But here, again, the story has been one of underperformance and sluggishness in recent years. For all of 2014, the most recent year that we have full data for, those numbers are still down from the recent high hit in 2007.    So based on these numbers, the struggle for entrepreneurs to gain access to the financial resources needed to start up, operate, or grow continues to be difficult. There are many reasons for this, including the state of the economy; certainly the policy environment, including regulations, and not just regulation directly imposed on small businesses but also on financial institutions. After all, they are the source of capital.    The bottom line is that small businesses need more avenues to expand access to financial capital. In the midst of these struggles, of course, the JOBS Act was passed by Congress' bipartisan effort and signed by the President 4 years ago. And the focus here was on helping to stimulate the U.S. economy by promoting capital formation.    There have been clear positives resulting from the JOBS Act. We have heard some of that already.    I looked at an interesting summary analysis done by Locavesting.com, and it is outlined in my testimony. One point I would like to highlight from that is under Title II of the JOBS Act, allowing accredited investor crowdfunding, in effect, by letting private companies conducting private placement under Reg D Rule 506 to publicly market the offering. Before that, of course, they couldn't do that.    And we saw the results. They note, Locavesting, that in the first 2 years there have been more than 6,000 offerings conducted under Title II.    Of course, Title II goes into effect on May 16th of this year, allowing for public, including non-accredited investors--crowd--investors--investment crowdfunding to take place on SEC-sanctioned funding portals. As I say, like Kickstarter for investing, crowdfunding promises to release an immense pool of capital that has been locked away from entrepreneurs--those entrepreneurs in search of start-up and growth capital.    Even given the significant and positive changes being brought about for entrepreneurs and investors with the JOBS Act, there are areas in need of improvement. A serious concern persists regarding extra government regulation or placing too many limitations on the ability of entrepreneurs to gain access to capital and/or on investors' abilities to make investments in entrepreneurial ventures.    In terms of making headway toward reducing the costs for entrepreneurs, SBE Council supports the four legislative initiatives that we are considering here today.    In terms of one of those, the Private Placement Improvement Act, that would amend Federal securities law to ensure that small businesses do not face complicated and unnecessary regulatory burdens when attempting to raise capital through private securities offerings under SEC Regulation D, we are certainly on board with that effort and the other pieces of legislation offered here today.    To sum up, the effort behind the JOBS Act was to expand entrepreneurial opportunities in the financial area and in the broader economy. Those four legislative measures would make further headway in a positive, pro-entrepreneur direction.    Thank you for your time and attention, and I look forward to answering any of your questions.    [The prepared statement of Mr. Keating can be found on page 74 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Garrett. Thank you.    Last but not least, Mr. Laws, you are welcome and recognized now for 5 minutes.</t>
   </si>
   <si>
-    <t>Laws</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Laws. Thank you, Chairman Garrett, Ranking Member Maloney, and members of the subcommittee, for this opportunity. I am here as the chief operating officer of AngelList, an online service that connects companies seeking funding with both angel investors and professional investors.    Since the JOBS Act was passed 4 years ago, and the SEC issued several clarifying letters, AngelList launched what we call our syndicate service. A syndicate allows an experienced accredited investor who is putting his or her own money into an early-stage startup to make that investment available to other angels and professional investors online.    Online investors are grouped into a single fund that follows along with the lead investors. Companies like this option because it allows them to deal with just one investor and to raise capital more quickly; and investors like it because they get the protection of an experienced lead investor with skin in the game.    All of this was enabled by the JOBS Act and subsequent SEC rulings.    Since launching syndicates in 2013, we have helped over a quarter-billion dollars in capital reach early-stage startups. And I know that number seems small by Wall Street standards, but these are the newest companies that just need a little money to get off the ground. That quarter-billion dollars went into almost 1,000 companies.    And we are just one of many such platforms. For example, CircleUp focuses on helping consumer products companies the way we help technology companies, and there are many more.    So first, I want to thank Congress--in particular, the leadership of this committee, Congressman McHenry, and the White House--for the changes brought about by the JOBS Act. It helped many new companies, ranging from those producing electric bicycles to Uber; from Spire Global, that launches and rents imaging satellites by the hour, to Cruise Automation, which General Motors just paid over $1 billion to acquire so they can compete in self-driving cars.    All of these new companies raised early money on AngelList, all because of the JOBS Act. It not only helped these companies create jobs, but they are also producing innovations that help the American economy.    Second, I want to discuss a few of the bills under consideration by this committee. As online fundraising becomes more common because of the JOBS Act, companies are bumping up against the limit of 99 investors acting as a group that can invest in a company.    On our platform alone, we have hit that limit dozens of times, leaving tens of millions of dollars that didn't go into good startups. And we are not alone. We represent a small portion of the capital invested in startups.    The Angel Capital Association includes many angel groups with more than 99 members. They need to reduce the amount given to growing companies sometimes to comply with this law.    Raising the limit to 499 would help with capital formation at that early stage. H.R. 4854 updates the law for today's technologies but maintains reasonable limits that keep it focused only on investment in small venture opportunities so that there aren't unintended consequences. Anybody seeking to break this law can already do so by ignoring the 99-investor limit, so this law simply provides guidelines for legitimate players to help companies get capital that they need legally.    Next up, crowdfunding. While AngelList has worked only with accredited investors for the last few years, some of the opportunities on AngelList have been targeted to larger groups of online investors, the so-called accredited crowdfunding. As a result, we devised methods that protect investors' interests while still encouraging capital formation for good companies.    Unfortunately, many of those innovations would not be legal for unaccredited investors under the crowdfunding rules. AngelList filed comments with the SEC on the rules and I have attached that letter as part of my written testimony.    H.R. 4855 takes into account the experience AngelList and others have had in the real world with accredited investors over the last 3 years. The investor protections of a lead investor and syndicate, for example, would be made legal for crowdfunding, also.    Additional measures ensure that crowdfunding doesn't become so onerous that only companies accredited investors don't like would use it. I applaud the goal of preventing fraud, but we have to do it in ways that don't simply guarantee low returns for the crowd while giving wealthy investors first look at the good opportunities.    Finally, on H.R. 4852, the Private Placement Improvement Act, I have also included our letter to the SEC in my written testimony. We support the SEC's stated goals of information-gathering and transparency. Unfortunately, the draft regulations currently under consideration wouldn't just measure; they would adopt rules that startups would most certainly violate by accident.    For example, startups don't have the money to hire lawyers before they raise the money, but the proposed rules say they should already know they need to file 15 days before even mentioning their fundraising--something they would only learn from their lawyer. In our letter we proposed several ways the SEC could use technology to achieve the same transparency without impairing early-stage fundraising. These more modern methods would still be viable under H.R. 4852, which we support.    In closing, I would like to thank you for this opportunity to share our experience with the JOBS Act. The start-up community deeply appreciates your continued attention to the issues affecting capital formation for very young companies.    This is an unusual issue because most startups that will benefit from your work don't exist yet. With your continued support, we hope thousands more of them can make use of the JOBS Act to do what Congress intended: raise capital more easily so they can grow, create more jobs, and innovate.    Thank you.    [The prepared statement of Mr. Laws can be found on page 89 of the appendix.]</t>
   </si>
   <si>
@@ -265,9 +241,6 @@
     <t>400644</t>
   </si>
   <si>
-    <t>Patrick T. McHenry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McHenry. Thank you, Chairman Garrett, and thank you for having this hearing, Mr. Chairman.    And I thank you all for your testimony.    I will begin by asking Mr. Keating a question. You say that angel investment is a critical source for startup and early-stage business capital, but you also note that angel investment is still sluggish. What are the dynamics at play?</t>
   </si>
   <si>
@@ -310,9 +283,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman.    And I want to thank the members of the panel.    I would like to talk about H.R. 4852, the Private Placement Improvement Act, so-called.    Mr. Beatty, the Form D--is that required right--is there a penalty for not filing a Form D?</t>
   </si>
   <si>
@@ -418,9 +388,6 @@
     <t>412282</t>
   </si>
   <si>
-    <t>James A. Himes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Himes. Thank you, Mr. Chairman.    And let me thank all of you for being here to have this conversation. I want to just make a couple of observations and ask a few questions.    To be clear, I actually voted for the JOBS Act. I had some misgivings, but in the end I thought it was a good compromise.    I am always taken aback, though, when this topic is shoehorned into the debate that this institution has so often about where exactly the boundary line of government regulation, interference, presence should be. It doesn't really fit.    We can eliminate all regulation on the issuance of new securities. That will make it a much simpler process for businesses to do capital formation, unquestionably at the expense of the other half of our economy, which are the investors.    So it seems to me that this is a problem of really balancing the interests of two absolutely essential elements of our economy: the people who need the capital; and the people who are offering the capital.    I get so confused when the presentations are shoehorned into this world where, in this case, in this panel's case, if we just do everything for those people who need capital at the cost of those people who provide--well, everything will be fine.    We know that is not true. So I want to make that observation because it just drives me crazy when good work gets caught up in this deregulatory fervor.    The question I want to ask, just to bring this point home: It is well-known that most instruments that are available to retail investors--mutual funds, equity mutual funds--most managers, professionals of equity mutual funds, don't beat the market index.    So I guess my question is, in particular for those who are so enthusiastic about pushing the boundaries of the JOBS Act, can anybody here tell me that they are sure that retail investors--because that is who we are talking about here--that retail investors--setting aside the issues of fraud and 404(b) and what companies are actually more prone to poor compliance; that is a whole other story--but are retail investors going to make a lot of money in crowdsourcing--crowdfunding?    Can anybody here on the panel tell me that your average middle-class family out there with, let's just say, I don't know, $10,000, $20,000 to invest--would anybody here recommend that a middle-class retail unsophisticated investor ought to put $10,000, $20,000 into a private placement or a crowdfunding deal?</t>
   </si>
   <si>
@@ -472,9 +439,6 @@
     <t>400441</t>
   </si>
   <si>
-    <t>Randy Neugebauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Thank you, Mr. Chairman.    I want to kind of pick up this line of reasoning because it is one of the things that I am very concerned about, and all across this government, is we have gotten into a mode now of the government telling people what is appropriate for them and what is not appropriate for them.    We have a Consumer Financial Protection Bureau (CFPB) that is out determining what kind of financial products that it--ordinary consumers should have, and so now we are trying to tell people whether they are smart enough or not to be able to make certain kinds of investments.    And one of the things that I think is very troubling to me is that the little guys have not had an opportunity in the past to get in on some of these wonderful companies that were started in a garage or in a dorm room or--and so I think one of the things that I wanted to mention, Mr. Laws, is in October the SEC finalized its rulemaking obligation under Title III of the JOBS Act but unfortunately imposed new restrictions on crowdfunding that Congress did not mandate, which could prevent Title III from reaching its full potential.    And the issue there is that the SEC placed arbitrary caps on the amount that individuals can invest in companies based upon the lesser of their annual income or their net worth. The new crowdfunding rules are set to go live in 2016.    As you know, Commissioner Piwowar dissented that decision and so I guess the question I have is, how do we determine what is appropriate for investors? Should the government just publish a list, ``These are things that we think are appropriate for people to invest in and these are amounts,'' and just take that decision away from the individuals?</t>
   </si>
   <si>
@@ -514,9 +478,6 @@
     <t>412407</t>
   </si>
   <si>
-    <t>John C. Carney Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carney. Thank you, Mr. Chairman.    I thank the gentleman from California because I do have to go.    I am going to resist the urge to get pulled into this debate about what the government should or shouldn't tell small investors, but I would like to associate myself with the comments by my friend from Connecticut, Mr. Himes. I voted for the JOBS Act, as well, and I worked hard with Mr. Fincher, my friend from Tennessee, on the IPO On-Ramp part of it.    And there were a lot of folks in the industry and in my State who worked on it and expressed concern about it. Delaware, as you may know, is the place where most of these companies are incorporated. And my friends in the Division of Incorporation had alerted me to the--to what they were seeing a couple of years ago with the lack of companies going to an IPO, and we know that those public offerings have increased since the JOBS Act passed, and there was some testimony that each of you made with that respect.    I thought that the 404(b) audit question would be one of the things that the IPO On-Ramp provided a 5-year phase-in and that would be the biggest thing that some of these emerging growth companies would look to in choosing to go do an IPO with--as an emerging growth company. But actually, as was mentioned earlier, I think by Mr. Griggs, it is the confidential filing piece that we hear is the most important part of that IPO On-Ramp. Mr. Griggs said that we should allow all companies to file confidentially.    Mr. Beatty, do you have a view of that?</t>
   </si>
   <si>
@@ -556,9 +517,6 @@
     <t>412422</t>
   </si>
   <si>
-    <t>Randy Hultgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Mr. Chairman.    Thank you all so much for being here. I appreciate your time and expertise in this important discussion.    I want to address my first questions to Mr. Atkins, if I may.    Earlier this year you wrote an op-ed that ran in the Wall Street Journal that was titled, ``Equity Policy Needs Surgery, Not Band-Aids.'' Volatility, flash-crash risks, and bigger dark pools are the legacy of the SEC's Regulation NMS.    This, of course, was with respect to IEX's application to be a registered national security exchange. I have commended IEX for putting forth ideas considered by some to be effective adjustments to our market, but I have also remained unsure about how the investor exchange would function in an already complicated market structure.    In your op-ed, you remarked about a broken process at the SEC, and I will quote your op-ed where you said, ``Will the agency address equity market structure concerns comprehensively, as many Members of Congress and SEC Commissioners say is necessary, or will it make these far-reaching policy decisions in an opaque exchange application approval process?''    Over the last few months there have been some developments where your perspective would be valuable. One, the extended comment period for IEX's exchange application, to which they have made some modifications, ends today. Also, the comment period on the notice of interpretation for whether 1,000-microsecond delay should be de minimis for the purpose of Rule 611, the order protection rule, ends today.    So, Mr. Atkins, I have been frustrated with the Commission that it has been slow to act on changes to market structure, but do you think in general, changes to market rules through an exchange application process will result in good public policy?</t>
   </si>
   <si>
@@ -604,9 +562,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman.    I am very old. I was around when Reg D was the new thing. And we were so impressed to think that, well, we are not the accredited investors' incomes of over $200,000. That was a tiny group of people who must be incredibly smart to be making that amount of money. Now it is an amount of money scarcely more than Congressmen and Federal Judges make.    Now we are here--you--for the most part, relaxing standards, letting--providing less protection to investors so that we can provide an easier path to providing capital for business.    If Reg D made sense back in, what was it, 1982, then it can't make sense now, and vice-versa, because if it made sense to put the limit at $200,000 then, then the income level should be $600,000 to $700,000 now.    I know that there has been discussion of indexing going further, but, Mr. Beatty, have we opened the door too much by deciding that $200,000 or $1 million in assets, excluding a home, is the definition of an accredited investor who can afford to lose a lot of money?</t>
   </si>
   <si>
@@ -658,9 +613,6 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you, Mr. Chairman.    In California, as you know, we have a world-class network of startups from Silicon Valley to Orange County, and the issue of access to capital for startup businesses--this is critical. This is critical to our State's economy, but also critical to ensuring that our country remains the best place for entrepreneurs--not only to get the entrepreneurs, but also to bring their products to market.    And so I was going to ask Mr. Keating, because you noted in your testimony that the Micro Offerings Safe Harbor Act, which I am an original cosponsor of, appropriately scale Federal rules and regulatory compliance for small businesses pursuing capital. Mr. Keating, how will this legislation help these startups that are looking for the investment to hire and to grow to enter the market?</t>
   </si>
   <si>
@@ -715,6 +667,9 @@
     <t xml:space="preserve">    Chairman Garrett. Mr. Scott is recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>400363</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Let me ask you about something I have not heard before and so I want a little bit of clarity of information referencing House Resolution 4855. Could you all explain to me what crowdfunding is? How would the average investor out there--what does that mean?</t>
   </si>
   <si>
@@ -763,9 +718,6 @@
     <t>412548</t>
   </si>
   <si>
-    <t>Ann Wagner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Wagner. Thank you, Mr. Chairman.    And thank you all for joining us today as we look at the JOBS Act 4 years later and examine the benefits it has brought to small companies and their ability to raise capital and grow their businesses.    As President Obama even said himself, this bill has been a game-changer for startups and for small businesses. We have seen this especially in my home district, where recent reports have said that St. Louis has the fastest-growing start-up scene in the country. This is exciting news. But as many of you have stated today, there is still more work that we can do to build on the success of the JOBS Act and in helping small businesses reach their full potential.    So in that vein, Mr. Griggs, you mentioned that--and it has been mentioned before--in the 4 years since the JOBS Act, there have been 865 IPOs with 86 percent being emerging growth companies. Can you talk a little bit, in some specifics here, about the most important steps that should be taken to build on the success?</t>
   </si>
   <si>
@@ -793,9 +745,6 @@
     <t>412609</t>
   </si>
   <si>
-    <t>J. French Hill</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hill. Thanks, Mr. Chairman. Thank you for hosting this panel. It is useful, and it is also great to be talking about kind of a positive topic for the economy because clearly, over the past 4 years, this was a bright spot in the Obama Administration and congressional collaboration on the economy, so it is nice to be talking about ways to enhance something that is generally working well.    Before I ask questions, I will make a note that I recently introduced a bill that is related to this topic that will head over to the Ways and Means Committee, H.R. 4831, which will allow people who are using crowdfunding and a Subchapter S company to not have that crowdfunding count as one of the 100 shareholder limitations.    Since pass-through ownership has gotten so popular, I am not sure S Corps are as popular as they once were because of State LLC encouragements. We all recognize that. But in the small community bank arena, and in some niches in the economy, Subchapter S is still popular, and so this is a way, I think, to combine the benefits of the JOBS Act with that Subchapter S form of incorporation.    Mr. Keating, I want to start with you, and you raised a question that we talk a lot about in here, and that is the AML, the money-laundering laws. And you made a reference in your testimony about portals and how they might be treated under AML. Could you elaborate just for a second on that?</t>
   </si>
   <si>
@@ -841,9 +790,6 @@
     <t>412639</t>
   </si>
   <si>
-    <t>Tom Emmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chairman.    And thanks to the panelists for being here today.    As we all know, small businesses are vital to our economy. If you define a small business as a firm with fewer than 500 employees, like the Small Business Administration does, then there are more than 28 million small businesses in the United States, and over half of the 120 million American workforce is employed by one of them. Small businesses have also created more than 64 percent of the net new jobs over the past 15 years, and today that number is north of 70 percent.    Despite the overwhelmingly positive impact small business has on our economy, traditional bank lending to small business is still at pre-recession lows. Furthermore, if a firm would like to sell stock to raise money, often it must register with the Securities and Exchange Commission. According to the SEC, registration costs $2.5 million on average, which many small businesses simply can't afford.    Fortunately, certain security offerings are exempt from SEC registration, including a private offering exemption under Section 482 of the Securities Act of 1933.    There is a problem, however. The problem is the ability of small businesses to effectively use this exemption is--the term ``private offering'' is not defined in law. Not only does this prevent small business from using the exemption, it leaves businesses who try to use the exemption and can't afford a team of expensive lawyers--which, again, most small businesses cannot--exposed to potential lawsuits and future liability.    That is why I introduced the Micro Lending Safe Harbor Act with seven of my colleagues. This legislation will create a bright line safe harbor for small private offerings. It will help entrepreneurs open new businesses and expand existing ones.    It does this by clarifying the safe harbor exemption--not by creating something new, but by clarifying something that exists for any offering that meets one or more of the following criteria: one, each purchaser has a substantive preexisting relationship with an owner; two, there are no more than 35 purchasers of securities from the issuer that are sold in reliance on the exemption during the 12-month period; or three, and this may be the most important, the aggregate amount of all securities sold by the issuers does not exceed $500,000 during the 12-month period preceding.    The bill also exempts any of the aforementioned security offerings from blue sky laws while maintaining anti-fraud provisions at the Federal and State level. Again, I want to make it clear, all Federal and State anti-fraud laws will remain fully applicable to these offerings.    On March 27, 2015, former SEC Commissioner Daniel Gallagher gave a speech at the Vanderbilt Law School where he noted: ``Given the substantial changes in technology and the markets since this law was enacted, it may be time to see if there are other ways to balance access to capital and investor protection, giving the issuers other choices when raising capital.''    He went on to say, ``Advancing a micro offering safe harbor, which would deem certain extremely small or limited offerings is not involving a public offering under Section 4(a)(2) of the Securities Act, worth exploring.''    As our economy continues to evolve, it is imperative that our laws and regulations also evolve to keep up with new business opportunities and demands. The Micro Offering Safe Harbor Act, which is endorsed by the National Small Business Association and the Small Business and Entrepreneurship Council, is a next-generation vehicle for capital formation.    The time has come for Congress to come together and help small business help themselves by making this important update and improvement to the Securities Act of 1933.    And in the short time I have left, I wanted to start with Mr. Atkins. It is interesting because I heard testimony earlier that I believe it is Section 504 of Regulation D already exists, so this would solve this problem. But that would require you to sell up to $1 million in securities in, I think, any 12-month period preceding.    How would that impact the discussion that we had earlier about the small businesses? I had one in Minnesota: Medtronic. We have several of them. The Disney Corporation, just name them, Amazon. If you wanted to buy--or borrow $30,000 from a family member, for instance, how would this impact that?</t>
   </si>
   <si>
@@ -857,9 +803,6 @@
   </si>
   <si>
     <t>412540</t>
-  </si>
-  <si>
-    <t>Luke Messer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Messer. Thank you, Mr. Chairman.    And I thank the panel today for being here for this important topic.    I want to direct my question to Mr. Atkins to start. You note in your testimony that there is more work to be done with respect to modernizing the Federal regulatory environment, and you also importantly note that Federal agencies have issued a record 392 major rules with economic impact of over $100 million annually on the economy. And many of us are supporters of the REINS Act, which would have Congress approve any regulation that had that kind of impact on the broader economy.    Could you just talk a little bit about how the regulatory burden impacts small businesses in America in search of capital?</t>
@@ -1309,11 +1252,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1333,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1361,11 +1300,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1385,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1413,11 +1348,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1437,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1465,11 +1396,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1489,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1517,11 +1444,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1541,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1569,11 +1492,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1593,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1621,11 +1540,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1645,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1673,11 +1588,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1697,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1725,11 +1636,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1749,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1777,11 +1684,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1801,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1829,11 +1732,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1853,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1881,11 +1780,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1905,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1933,11 +1828,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1957,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1985,11 +1876,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2009,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2037,11 +1924,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2061,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2089,11 +1972,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2113,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2141,11 +2020,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2165,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2193,11 +2068,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2217,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2245,11 +2116,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2269,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2297,11 +2164,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2321,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2347,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2373,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2399,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2425,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2451,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2477,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2503,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2529,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2555,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2581,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2607,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2633,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2659,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2685,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2711,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2737,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2763,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2789,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2817,11 +2644,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2841,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>82</v>
-      </c>
-      <c r="G61" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2867,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2893,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2919,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2945,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2971,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2997,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3023,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3049,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
         <v>83</v>
-      </c>
-      <c r="H69" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3075,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3101,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3127,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3155,11 +2956,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3179,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>97</v>
-      </c>
-      <c r="G74" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3205,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3231,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>97</v>
-      </c>
-      <c r="G76" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3257,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3283,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>97</v>
-      </c>
-      <c r="G78" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3309,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3335,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>97</v>
-      </c>
-      <c r="G80" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3361,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3387,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>97</v>
-      </c>
-      <c r="G82" t="s">
-        <v>98</v>
-      </c>
-      <c r="H82" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3413,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3439,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>97</v>
-      </c>
-      <c r="G84" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3465,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3491,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>97</v>
-      </c>
-      <c r="G86" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3517,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3543,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>97</v>
-      </c>
-      <c r="G88" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3569,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3595,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>97</v>
-      </c>
-      <c r="G90" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3621,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3647,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>97</v>
-      </c>
-      <c r="G92" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3673,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3699,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>97</v>
-      </c>
-      <c r="G94" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3725,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3751,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>97</v>
-      </c>
-      <c r="G96" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3779,11 +3532,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3803,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3829,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3855,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3881,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3907,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3933,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3959,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3985,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4011,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4039,11 +3772,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4063,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>133</v>
-      </c>
-      <c r="G108" t="s">
-        <v>134</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4089,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4115,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G110" t="s">
-        <v>134</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4141,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4167,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>133</v>
-      </c>
-      <c r="G112" t="s">
-        <v>134</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4193,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4219,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>133</v>
-      </c>
-      <c r="G114" t="s">
-        <v>134</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4245,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4271,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>133</v>
-      </c>
-      <c r="G116" t="s">
-        <v>134</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4297,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4323,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>133</v>
-      </c>
-      <c r="G118" t="s">
+        <v>123</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
         <v>134</v>
-      </c>
-      <c r="H118" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4349,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4375,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>133</v>
-      </c>
-      <c r="G120" t="s">
-        <v>134</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4403,11 +4108,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4427,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>133</v>
-      </c>
-      <c r="G122" t="s">
-        <v>134</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4455,11 +4156,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4479,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>151</v>
-      </c>
-      <c r="G124" t="s">
-        <v>152</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4505,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4531,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>151</v>
-      </c>
-      <c r="G126" t="s">
-        <v>152</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4557,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4583,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>151</v>
-      </c>
-      <c r="G128" t="s">
-        <v>152</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4609,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4635,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>151</v>
-      </c>
-      <c r="G130" t="s">
-        <v>152</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4661,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4687,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>151</v>
-      </c>
-      <c r="G132" t="s">
-        <v>152</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4713,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4739,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
+        <v>140</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
         <v>151</v>
-      </c>
-      <c r="G134" t="s">
-        <v>152</v>
-      </c>
-      <c r="H134" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4767,11 +4444,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4791,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>165</v>
-      </c>
-      <c r="G136" t="s">
-        <v>166</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4817,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
-      </c>
-      <c r="G137" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4843,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>165</v>
-      </c>
-      <c r="G138" t="s">
-        <v>166</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4869,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4895,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>165</v>
-      </c>
-      <c r="G140" t="s">
-        <v>166</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4921,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4947,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>165</v>
-      </c>
-      <c r="G142" t="s">
-        <v>166</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4973,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4999,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>165</v>
-      </c>
-      <c r="G144" t="s">
-        <v>166</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5025,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5051,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>165</v>
-      </c>
-      <c r="G146" t="s">
-        <v>166</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5079,11 +4732,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5103,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>179</v>
-      </c>
-      <c r="G148" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5129,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5155,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>179</v>
-      </c>
-      <c r="G150" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5181,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5207,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>179</v>
-      </c>
-      <c r="G152" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5233,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5259,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>179</v>
-      </c>
-      <c r="G154" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5285,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5311,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>179</v>
-      </c>
-      <c r="G156" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5337,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5363,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>179</v>
-      </c>
-      <c r="G158" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5389,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5415,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
+        <v>166</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
         <v>179</v>
-      </c>
-      <c r="G160" t="s">
-        <v>180</v>
-      </c>
-      <c r="H160" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5443,11 +5068,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5467,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>195</v>
-      </c>
-      <c r="G162" t="s">
-        <v>196</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5493,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>26</v>
-      </c>
-      <c r="G163" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5519,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>195</v>
-      </c>
-      <c r="G164" t="s">
-        <v>196</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5545,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>26</v>
-      </c>
-      <c r="G165" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5571,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>195</v>
-      </c>
-      <c r="G166" t="s">
-        <v>196</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5597,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>26</v>
-      </c>
-      <c r="G167" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5623,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>195</v>
-      </c>
-      <c r="G168" t="s">
-        <v>196</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5649,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>26</v>
-      </c>
-      <c r="G169" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5675,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>195</v>
-      </c>
-      <c r="G170" t="s">
-        <v>196</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5701,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>26</v>
-      </c>
-      <c r="G171" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5727,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>195</v>
-      </c>
-      <c r="G172" t="s">
-        <v>196</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5753,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5779,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>195</v>
-      </c>
-      <c r="G174" t="s">
-        <v>196</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5805,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5831,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>195</v>
-      </c>
-      <c r="G176" t="s">
+        <v>181</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
         <v>196</v>
-      </c>
-      <c r="H176" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5859,11 +5452,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5883,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>213</v>
-      </c>
-      <c r="G178" t="s">
-        <v>214</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5909,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5935,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>213</v>
-      </c>
-      <c r="G180" t="s">
-        <v>214</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5961,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5987,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>213</v>
-      </c>
-      <c r="G182" t="s">
-        <v>214</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6013,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6039,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>213</v>
-      </c>
-      <c r="G184" t="s">
-        <v>214</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6065,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6091,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>213</v>
-      </c>
-      <c r="G186" t="s">
-        <v>214</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6117,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>22</v>
-      </c>
-      <c r="G187" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6143,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>213</v>
-      </c>
-      <c r="G188" t="s">
-        <v>214</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6169,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6195,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>213</v>
-      </c>
-      <c r="G190" t="s">
-        <v>214</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6221,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6247,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
+        <v>198</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
         <v>213</v>
-      </c>
-      <c r="G192" t="s">
-        <v>214</v>
-      </c>
-      <c r="H192" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6275,11 +5836,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6299,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>213</v>
-      </c>
-      <c r="G194" t="s">
-        <v>214</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6327,11 +5884,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6351,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6377,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>22</v>
-      </c>
-      <c r="G197" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6403,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6429,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>22</v>
-      </c>
-      <c r="G199" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6455,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6481,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>22</v>
-      </c>
-      <c r="G201" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6507,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6533,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>22</v>
-      </c>
-      <c r="G203" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6559,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
-      </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6585,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>22</v>
-      </c>
-      <c r="G205" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6611,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
-      </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6637,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>22</v>
-      </c>
-      <c r="G207" t="s">
-        <v>36</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6663,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>22</v>
-      </c>
-      <c r="G208" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6689,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
-      </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6717,11 +6244,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6741,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>248</v>
-      </c>
-      <c r="G211" t="s">
-        <v>249</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6767,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>22</v>
-      </c>
-      <c r="G212" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6793,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>248</v>
-      </c>
-      <c r="G213" t="s">
-        <v>249</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6819,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>22</v>
-      </c>
-      <c r="G214" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6845,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>248</v>
-      </c>
-      <c r="G215" t="s">
-        <v>249</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6871,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>22</v>
-      </c>
-      <c r="G216" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6897,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>248</v>
-      </c>
-      <c r="G217" t="s">
-        <v>249</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6925,11 +6436,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>12</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6949,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>258</v>
-      </c>
-      <c r="G219" t="s">
-        <v>259</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6975,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>22</v>
-      </c>
-      <c r="G220" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7001,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>258</v>
-      </c>
-      <c r="G221" t="s">
-        <v>259</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7027,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>22</v>
-      </c>
-      <c r="G222" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7053,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>258</v>
-      </c>
-      <c r="G223" t="s">
-        <v>259</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7079,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>26</v>
-      </c>
-      <c r="G224" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7105,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>258</v>
-      </c>
-      <c r="G225" t="s">
-        <v>259</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7131,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>22</v>
-      </c>
-      <c r="G226" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7157,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>258</v>
-      </c>
-      <c r="G227" t="s">
-        <v>259</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7183,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>22</v>
-      </c>
-      <c r="G228" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7209,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>258</v>
-      </c>
-      <c r="G229" t="s">
-        <v>259</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7235,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>22</v>
-      </c>
-      <c r="G230" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7261,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>258</v>
-      </c>
-      <c r="G231" t="s">
-        <v>259</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7289,11 +6772,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>12</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7313,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>274</v>
-      </c>
-      <c r="G233" t="s">
-        <v>275</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7339,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>22</v>
-      </c>
-      <c r="G234" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7365,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>274</v>
-      </c>
-      <c r="G235" t="s">
-        <v>275</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7393,11 +6868,9 @@
       <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="G236" t="s">
-        <v>12</v>
-      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7417,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>280</v>
-      </c>
-      <c r="G237" t="s">
-        <v>281</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7443,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>22</v>
-      </c>
-      <c r="G238" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7469,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>280</v>
-      </c>
-      <c r="G239" t="s">
-        <v>281</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7495,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>22</v>
-      </c>
-      <c r="G240" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7521,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>280</v>
-      </c>
-      <c r="G241" t="s">
-        <v>281</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7547,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>22</v>
-      </c>
-      <c r="G242" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7573,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>280</v>
-      </c>
-      <c r="G243" t="s">
-        <v>281</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7599,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>22</v>
-      </c>
-      <c r="G244" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7625,13 +7082,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>280</v>
-      </c>
-      <c r="G245" t="s">
-        <v>281</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7651,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>22</v>
-      </c>
-      <c r="G246" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7677,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>22</v>
-      </c>
-      <c r="G247" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7703,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>280</v>
-      </c>
-      <c r="G248" t="s">
-        <v>281</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7729,13 +7178,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>22</v>
-      </c>
-      <c r="G249" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7755,13 +7202,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>280</v>
-      </c>
-      <c r="G250" t="s">
-        <v>281</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7781,13 +7226,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>22</v>
-      </c>
-      <c r="G251" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7807,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>280</v>
-      </c>
-      <c r="G252" t="s">
-        <v>281</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7835,11 +7276,9 @@
       <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="G253" t="s">
-        <v>12</v>
-      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
